--- a/Output/YL_growth_media_withC.xlsx
+++ b/Output/YL_growth_media_withC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c5a228e4bc8237/Dokumente/GitHub/Modeling_iGEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{6FBCB9C0-236E-4821-A40E-AC88F827274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B4F020-C5D6-4AC7-9285-9464D8C01F5F}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{6FBCB9C0-236E-4821-A40E-AC88F827274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C8B08C-7320-4F02-84E4-265152769475}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2235" windowWidth="5385" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
   <si>
-    <t>objective value</t>
-  </si>
-  <si>
     <t>EX_glc_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -194,6 +192,24 @@
   </si>
   <si>
     <t>EX_xylt_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>OV AP</t>
+  </si>
+  <si>
+    <t>Cn</t>
+  </si>
+  <si>
+    <t>OV/Cn AP</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>OV Bm</t>
+  </si>
+  <si>
+    <t>OV/Cn Bm</t>
   </si>
 </sst>
 </file>
@@ -331,6 +347,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>OV(AP)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -354,330 +373,329 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C:$C</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>EX_glc_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>EX_13BDglcn_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>EX_4abut_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>EX_ac_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>EX_adn_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>EX_akg_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>EX_ala_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>EX_amet_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>EX_arg_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>EX_asp_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>EX_cit_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>EX_cytd_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>EX_ddca_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>EX_etoh_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>EX_fru_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>EX_fum_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>EX_gal_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>EX_gam6p_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>EX_gln_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>EX_glu_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>EX_gly_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>EX_glyc_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>EX_gsn_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>EX_hdca_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16</c:v>
+                  <c:v>EX_hdcea_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16</c:v>
+                  <c:v>EX_ins_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>EX_lac_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>EX_leu_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>EX_mal_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>EX_malt_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12</c:v>
+                  <c:v>EX_man_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>EX_melib_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12</c:v>
+                  <c:v>EX_ocdca_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18</c:v>
+                  <c:v>EX_ocdcea_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18</c:v>
+                  <c:v>EX_ocdcya_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18</c:v>
+                  <c:v>EX_orn_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5</c:v>
+                  <c:v>EX_pap_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>EX_pro_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>EX_pyr_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>EX_rib_D_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5</c:v>
+                  <c:v>EX_sbt_D_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>EX_ser_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>EX_succ_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4</c:v>
+                  <c:v>EX_thr_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4</c:v>
+                  <c:v>EX_tre_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>EX_ttdca_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14</c:v>
+                  <c:v>EX_tyr_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9</c:v>
+                  <c:v>EX_uri_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9</c:v>
+                  <c:v>EX_val_L_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5</c:v>
+                  <c:v>EX_xtsn_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10</c:v>
+                  <c:v>EX_xyl_D_LPAREN_e_RPAREN_</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>EX_xylt_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D:$D</c:f>
+              <c:f>Sheet1!$D$2:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.49173793859649179</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49173793859649179</c:v>
+                  <c:v>0.49173793859649217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49173793859649217</c:v>
+                  <c:v>0.41583333333333627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41583333333333627</c:v>
+                  <c:v>0.1243707482993195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1243707482993195</c:v>
+                  <c:v>0.25197753623188462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25197753623188462</c:v>
+                  <c:v>0.17174225865209336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17174225865209336</c:v>
+                  <c:v>0.39531045751633798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39531045751633798</c:v>
+                  <c:v>0.16798502415458991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16798502415458991</c:v>
+                  <c:v>2.7222222222222484E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7222222222222484E-2</c:v>
+                  <c:v>0.10559722222222177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10559722222222177</c:v>
+                  <c:v>7.6506226053639895E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6506226053639895E-2</c:v>
+                  <c:v>0.1580884502923971</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1580884502923971</c:v>
+                  <c:v>0.31322746697746701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31322746697746701</c:v>
+                  <c:v>0.28401724137931073</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28401724137931073</c:v>
+                  <c:v>0.49722039473684032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49722039473684032</c:v>
+                  <c:v>9.3587372448980369E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3587372448980369E-2</c:v>
+                  <c:v>0.49722039473684271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49722039473684271</c:v>
+                  <c:v>0.39401315789473718</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39401315789473718</c:v>
+                  <c:v>0.18266666666666703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18266666666666703</c:v>
+                  <c:v>0.18266666666667014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18266666666667014</c:v>
+                  <c:v>0.16141203703703569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16141203703703569</c:v>
+                  <c:v>0.24491666666666553</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24491666666666553</c:v>
+                  <c:v>0.25089057971014339</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25089057971014339</c:v>
+                  <c:v>0.41031395687645678</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.41031395687645678</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.41031395687645678</c:v>
+                  <c:v>0.25415144927536271</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25415144927536271</c:v>
+                  <c:v>0.33908950617283934</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33908950617283934</c:v>
+                  <c:v>0.63176793981481549</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63176793981481549</c:v>
+                  <c:v>9.3587372448979106E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.3587372448979106E-2</c:v>
+                  <c:v>0.52821546052631618</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52821546052631618</c:v>
+                  <c:v>0.49722039473684271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.49722039473684271</c:v>
+                  <c:v>0.52821546052631818</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.52821546052631818</c:v>
+                  <c:v>0.42202732452732372</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.42202732452732372</c:v>
+                  <c:v>0.42202732452732433</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.42202732452732433</c:v>
+                  <c:v>0.42202732452732428</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.42202732452732428</c:v>
+                  <c:v>0.33266666666666639</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33266666666666639</c:v>
+                  <c:v>5.0552631578947203E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.0552631578947203E-2</c:v>
+                  <c:v>0.33266666666666678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.33266666666666678</c:v>
+                  <c:v>0.29279320987654356</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.29279320987654356</c:v>
+                  <c:v>0.48482236842105236</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.48482236842105236</c:v>
+                  <c:v>0.51295772946859985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.51295772946859985</c:v>
+                  <c:v>0.29279320987654145</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.29279320987654145</c:v>
+                  <c:v>0.149188432835822</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.149188432835822</c:v>
+                  <c:v>0.32304310344827575</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.32304310344827575</c:v>
+                  <c:v>0.52821546052632196</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.52821546052632196</c:v>
+                  <c:v>0.39525391275391702</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.39525391275391702</c:v>
+                  <c:v>0.36162781662781124</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36162781662781124</c:v>
+                  <c:v>0.16174342105263109</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16174342105263109</c:v>
+                  <c:v>0.56409935897435592</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.56409935897435592</c:v>
+                  <c:v>0.25306449275362319</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25306449275362319</c:v>
+                  <c:v>0.45192763157894744</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.45192763157894744</c:v>
-                </c:pt>
-                <c:pt idx="52">
                   <c:v>0.5039550724637698</c:v>
                 </c:pt>
               </c:numCache>
@@ -686,7 +704,371 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-705F-45B4-9515-B58CAF921D67}"/>
+              <c16:uniqueId val="{00000002-4640-4D05-97AA-11442017C3B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OV(Bm)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>EX_glc_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EX_13BDglcn_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EX_4abut_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX_ac_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EX_adn_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EX_akg_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EX_ala_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EX_amet_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EX_arg_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EX_asp_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EX_cit_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>EX_cytd_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EX_ddca_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EX_etoh_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>EX_fru_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>EX_fum_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>EX_gal_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>EX_gam6p_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>EX_gln_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>EX_glu_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>EX_gly_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>EX_glyc_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>EX_gsn_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>EX_hdca_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>EX_hdcea_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>EX_ins_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>EX_lac_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>EX_leu_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>EX_mal_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>EX_malt_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>EX_man_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>EX_melib_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>EX_ocdca_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>EX_ocdcea_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>EX_ocdcya_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>EX_orn_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>EX_pap_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>EX_pro_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>EX_pyr_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>EX_rib_D_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>EX_sbt_D_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>EX_ser_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>EX_succ_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>EX_thr_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>EX_tre_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>EX_ttdca_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>EX_tyr_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>EX_uri_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>EX_val_L_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>EX_xtsn_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>EX_xyl_D_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>EX_xylt_LPAREN_e_RPAREN_</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.31487771069496151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31487771069496118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26557369000571074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16804688817654662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5008819058526003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17503552860444652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1129983517997894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1065983477757573E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0038136666123871E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1281233949770821E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26252839820812551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7333505417114053E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32085522860020449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32085522860021215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27715187400529634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13919294327633283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12767130549392602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8766721236761598E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1646668045033528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3443004686113208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32383982531753408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17130463382259781</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14136782938790854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32519610613881633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35322028878184031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3208552286002157</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35322028878183814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.338874568854094</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33789031241911527</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32993441479364038</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27664801171240916</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6674075594330722E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27656828381887338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10877206517588504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30325382937640677</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34177654126859297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11024975747680656</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8456138103565074E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17296753394579056</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35324894849838989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33373381206411562</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23310031390463365</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4543790839911448E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28013868039827983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16752957495420751</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2864592203689062</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32800955262148557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4640-4D05-97AA-11442017C3B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -722,6 +1104,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>position</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> of compound in list</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -784,6 +1225,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>OV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> (flux)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -822,6 +1323,636 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="936980543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.31487771069496151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31487771069496118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26557369000571074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16804688817654662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5008819058526003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17503552860444652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1129983517997894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1065983477757573E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0038136666123871E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1281233949770821E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26252839820812551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7333505417114053E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32085522860020449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32085522860021215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27715187400529634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13919294327633283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12767130549392602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8766721236761598E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1646668045033528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3443004686113208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32383982531753408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17130463382259781</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14136782938790854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32519610613881633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35322028878184031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3208552286002157</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35322028878183814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.338874568854094</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33789031241911527</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32993441479364038</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27664801171240916</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6674075594330722E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27656828381887338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10877206517588504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30325382937640677</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34177654126859297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11024975747680656</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8456138103565074E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17296753394579056</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35324894849838989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33373381206411562</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23310031390463365</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4543790839911448E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28013868039827983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16752957495420751</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2864592203689062</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32800955262148557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68B1-4951-AE6B-7CC2DE28BE08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1309770496"/>
+        <c:axId val="1008483376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1309770496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008483376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008483376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309770496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,6 +2048,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1433,20 +2604,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>515215</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>35502</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>111702</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271895</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15129</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1466,6 +3153,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23786</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>356295</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EF8315-0D8B-3A68-B38B-9A8004294907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1795,28 +3518,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>2.9504276315789508</v>
@@ -1834,10 +3573,14 @@
       <c r="F2">
         <v>1.8892662641697691</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>F2/C2</f>
+        <v>0.31487771069496151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2.950427631578953</v>
@@ -1852,10 +3595,14 @@
       <c r="F3">
         <v>1.8892662641697671</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G53" si="1">F3/C3</f>
+        <v>0.31487771069496118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1.6633333333333451</v>
@@ -1870,10 +3617,14 @@
       <c r="F4">
         <v>1.062294760022843</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.26557369000571074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.24874149659863901</v>
@@ -1885,10 +3636,14 @@
         <f t="shared" si="0"/>
         <v>0.1243707482993195</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.5197753623188461</v>
@@ -1903,10 +3658,14 @@
       <c r="F6">
         <v>1.680468881765466</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.16804688817654662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.8587112932604668</v>
@@ -1921,10 +3680,14 @@
       <c r="F7">
         <v>0.42504409529262999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.5008819058526003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1.1859313725490139</v>
@@ -1939,10 +3702,14 @@
       <c r="F8">
         <v>0.52510658581333958</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.17503552860444652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2.5197753623188488</v>
@@ -1957,10 +3724,14 @@
       <c r="F9">
         <v>1.6949752769968409</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.1129983517997894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.16333333333333491</v>
@@ -1972,10 +3743,14 @@
         <f t="shared" si="0"/>
         <v>2.7222222222222484E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.42238888888888709</v>
@@ -1987,10 +3762,17 @@
         <f t="shared" si="0"/>
         <v>0.10559722222222177</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1.6426393391103029E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.1065983477757573E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.4590373563218394</v>
@@ -2002,10 +3784,17 @@
         <f t="shared" si="0"/>
         <v>7.6506226053639895E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>4.8022881999674319E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8.0038136666123871E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.4227960526315739</v>
@@ -2017,10 +3806,17 @@
         <f t="shared" si="0"/>
         <v>0.1580884502923971</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.8215311055479374</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9.1281233949770821E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3.7587296037296039</v>
@@ -2032,10 +3828,17 @@
         <f t="shared" si="0"/>
         <v>0.31322746697746701</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3.1503407784975059</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.26252839820812551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0.56803448275862145</v>
@@ -2047,10 +3850,17 @@
         <f t="shared" si="0"/>
         <v>0.28401724137931073</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.13466701083422811</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.7333505417114053E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2.9833223684210419</v>
@@ -2062,10 +3872,17 @@
         <f t="shared" si="0"/>
         <v>0.49722039473684032</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1.925131371601227</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.32085522860020449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0.37434948979592148</v>
@@ -2077,10 +3894,14 @@
         <f t="shared" si="0"/>
         <v>9.3587372448980369E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2.9833223684210561</v>
@@ -2092,10 +3913,17 @@
         <f t="shared" si="0"/>
         <v>0.49722039473684271</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1.925131371601273</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.32085522860021215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2.3640789473684229</v>
@@ -2107,10 +3935,17 @@
         <f t="shared" si="0"/>
         <v>0.39401315789473718</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1.6629112440317779</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.27715187400529634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0.91333333333333522</v>
@@ -2122,10 +3957,17 @@
         <f t="shared" si="0"/>
         <v>0.18266666666666703</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.69596471638166413</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.13919294327633283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0.91333333333335065</v>
@@ -2137,10 +3979,17 @@
         <f t="shared" si="0"/>
         <v>0.18266666666667014</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.63835652746963012</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.12767130549392602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0.32282407407407138</v>
@@ -2152,10 +4001,14 @@
         <f t="shared" si="0"/>
         <v>0.16141203703703569</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0.73474999999999657</v>
@@ -2167,10 +4020,17 @@
         <f t="shared" si="0"/>
         <v>0.24491666666666553</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.29630016371028478</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>9.8766721236761598E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2.5089057971014341</v>
@@ -2182,10 +4042,17 @@
         <f t="shared" si="0"/>
         <v>0.25089057971014339</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1.646668045033528</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.1646668045033528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>6.5650233100233084</v>
@@ -2197,10 +4064,20 @@
         <f t="shared" si="0"/>
         <v>0.41031395687645678</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>5.5088074977811328</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.3443004686113208</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>6.5650233100233084</v>
@@ -2212,10 +4089,17 @@
         <f t="shared" si="0"/>
         <v>0.41031395687645678</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>5.1814372050805453</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.32383982531753408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2.5415144927536271</v>
@@ -2227,10 +4111,17 @@
         <f t="shared" si="0"/>
         <v>0.25415144927536271</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1.713046338225978</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.17130463382259781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1.017268518518518</v>
@@ -2242,10 +4133,17 @@
         <f t="shared" si="0"/>
         <v>0.33908950617283934</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.42410348816372562</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.14136782938790854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3.790607638888893</v>
@@ -2261,12 +4159,16 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.951176636832898</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.32519610613881633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0.37434948979591642</v>
@@ -2278,10 +4180,14 @@
         <f t="shared" si="0"/>
         <v>9.3587372448979106E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>6.3385855263157946</v>
@@ -2297,12 +4203,19 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2386434653820837</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.35322028878184031</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2.9833223684210561</v>
@@ -2314,10 +4227,17 @@
         <f t="shared" si="0"/>
         <v>0.49722039473684271</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1.9251313716012941</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.3208552286002157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>6.3385855263158186</v>
@@ -2329,10 +4249,20 @@
         <f t="shared" si="0"/>
         <v>0.52821546052631818</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>4.2386434653820579</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.35322028878183814</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>7.5964918414918268</v>
@@ -2344,10 +4274,20 @@
         <f t="shared" si="0"/>
         <v>0.42202732452732372</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>6.0997422393736924</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.338874568854094</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>7.5964918414918383</v>
@@ -2359,10 +4299,20 @@
         <f t="shared" si="0"/>
         <v>0.42202732452732433</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>6.0820256235440748</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.33789031241911527</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>7.5964918414918374</v>
@@ -2374,10 +4324,17 @@
         <f t="shared" si="0"/>
         <v>0.42202732452732428</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>5.9388194662855271</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.32993441479364038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1.663333333333332</v>
@@ -2389,10 +4346,17 @@
         <f t="shared" si="0"/>
         <v>0.33266666666666639</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1.3832400585620459</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.27664801171240916</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0.50552631578947205</v>
@@ -2404,10 +4368,17 @@
         <f t="shared" si="0"/>
         <v>5.0552631578947203E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>9.6674075594330722E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>9.6674075594330722E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1.663333333333334</v>
@@ -2419,10 +4390,17 @@
         <f t="shared" si="0"/>
         <v>0.33266666666666678</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1.382841419094367</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.27656828381887338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0.87837962962963068</v>
@@ -2434,10 +4412,17 @@
         <f t="shared" si="0"/>
         <v>0.29279320987654356</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.32631619552765512</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.10877206517588504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>2.4241118421052619</v>
@@ -2449,10 +4434,17 @@
         <f t="shared" si="0"/>
         <v>0.48482236842105236</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1.516269146882034</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.30325382937640677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>3.0777463768115991</v>
@@ -2468,12 +4460,19 @@
         <v>4</v>
       </c>
       <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0506592476115579</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.34177654126859297</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0.87837962962962435</v>
@@ -2485,10 +4484,17 @@
         <f t="shared" si="0"/>
         <v>0.29279320987654145</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.33074927243041968</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.11024975747680656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0.59675373134328802</v>
@@ -2500,10 +4506,17 @@
         <f t="shared" si="0"/>
         <v>0.149188432835822</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.1538245524142603</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3.8456138103565074E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1.292172413793103</v>
@@ -2515,10 +4528,17 @@
         <f t="shared" si="0"/>
         <v>0.32304310344827575</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0.69187013578316225</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.17296753394579056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>6.338585526315863</v>
@@ -2534,12 +4554,19 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2389873819806789</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.35324894849838989</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>5.533554778554838</v>
@@ -2551,10 +4578,17 @@
         <f t="shared" si="0"/>
         <v>0.39525391275391702</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>4.6722733688976188</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.33373381206411562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3.254650349650301</v>
@@ -2566,10 +4600,17 @@
         <f t="shared" si="0"/>
         <v>0.36162781662781124</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>2.0979028251417029</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.23310031390463365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1.4556907894736799</v>
@@ -2581,10 +4622,17 @@
         <f t="shared" si="0"/>
         <v>0.16174342105263109</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0.85089411755920308</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>9.4543790839911448E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>2.8204967948717798</v>
@@ -2600,12 +4648,16 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.400693401991399</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.28013868039827983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>2.5306449275362319</v>
@@ -2617,10 +4669,17 @@
         <f t="shared" si="0"/>
         <v>0.25306449275362319</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1.6752957495420751</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.16752957495420751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>2.2596381578947371</v>
@@ -2632,10 +4691,17 @@
         <f t="shared" si="0"/>
         <v>0.45192763157894744</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1.432296101844531</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.2864592203689062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>2.5197753623188488</v>
@@ -2646,10 +4712,31 @@
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0.5039550724637698</v>
+      </c>
+      <c r="F53">
+        <v>1.6400477631074279</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.32800955262148557</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F07A2-5FC1-42BF-87A9-E42251C6230D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Output/YL_growth_media_withC.xlsx
+++ b/Output/YL_growth_media_withC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c5a228e4bc8237/Dokumente/GitHub/Modeling_iGEM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{6FBCB9C0-236E-4821-A40E-AC88F827274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C8B08C-7320-4F02-84E4-265152769475}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{6FBCB9C0-236E-4821-A40E-AC88F827274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA81A17D-305F-48E9-BC32-18E291BA9987}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16695" yWindow="5100" windowWidth="5385" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3124,16 +3124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>271895</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14159</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>15129</xdr:rowOff>
+      <xdr:rowOff>127188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3520,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
